--- a/src/com/jabava/resources/template/salaryTemplate.xlsx
+++ b/src/com/jabava/resources/template/salaryTemplate.xlsx
@@ -13,6 +13,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请填写字符串</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
@@ -55,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +110,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -421,7 +452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -472,5 +503,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>